--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999999343640929</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990406509829954</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999998490972294</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999998750770474</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999993285507718</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G2" t="n">
-        <v>6.126823819348487e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008955101968187813</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I2" t="n">
-        <v>2.036068071953928e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06102419127493e-07</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.121085245540711e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>6.688595059189515e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0007827403029963697</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000000630104708</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000816063178190726</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P2" t="n">
-        <v>126.6108383448538</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.3357537633956</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_1</t>
+          <t>model_32_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999993418116909</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990359283432918</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999986768879209</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999995602760209</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999992481381249</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G3" t="n">
-        <v>6.143898954368044e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008999185736821932</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I3" t="n">
-        <v>1.78521987978919e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>7.254725729488648e-07</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>1.255346226369028e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>7.173669334366874e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000783830272084974</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000631860777</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008171995495199792</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P3" t="n">
-        <v>126.6052722029547</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.3301876214965</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_2</t>
+          <t>model_32_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999992614707577</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990313234253959</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999987781913999</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999990621853675</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999990429803224</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G4" t="n">
-        <v>6.893846299886394e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009042170624055623</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I4" t="n">
-        <v>1.648535325513497e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J4" t="n">
-        <v>1.547240602528484e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>1.597887964020991e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>7.882395084455653e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0008302918944495601</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000708988073</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0008656391393374429</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P4" t="n">
-        <v>126.3749329557554</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q4" t="n">
-        <v>186.0998483742973</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_3</t>
+          <t>model_32_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999991190011851</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990268358932315</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999988216867329</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999984140651128</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999987403402977</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G5" t="n">
-        <v>8.223737223045435e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009084059767011539</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I5" t="n">
-        <v>1.589848888871511e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J5" t="n">
-        <v>2.61653291103672e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.103190899954116e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>8.595225708921115e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0009068482355413962</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000000845758862</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009454546423630317</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P5" t="n">
-        <v>126.0221417904134</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.7470572089552</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_4</t>
+          <t>model_32_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999989201048058</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990223689947743</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999988100482409</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999976272599468</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999983469036526</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G6" t="n">
-        <v>1.008034761844321e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009125756303367116</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I6" t="n">
-        <v>1.605552220214479e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>3.914632617406287e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.760092418810383e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>9.29026627437625e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001004009343504492</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001036699386</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001046752099843337</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P6" t="n">
-        <v>125.6150158059061</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.339931224448</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_5</t>
+          <t>model_32_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999998675798741</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990180599814658</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999987547527814</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999967293084077</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999978806760461</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G7" t="n">
-        <v>1.236083749504062e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009165979051164192</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I7" t="n">
-        <v>1.680160074809252e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J7" t="n">
-        <v>5.396105642272235e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>3.538529370850799e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>9.949705108628363e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001111793033574173</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001271233209</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001159124364742281</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P7" t="n">
-        <v>125.2071248854517</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.9320403039935</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_6</t>
+          <t>model_32_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999998402075254</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990139720737328</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999998666363507</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999957658146449</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999973688985105</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G8" t="n">
-        <v>1.491592609564464e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009204137875467386</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I8" t="n">
-        <v>1.799420031982192e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J8" t="n">
-        <v>6.985712605431577e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>4.393018764941098e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001055980713214781</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001221307745641722</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001534007756</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001273301344829252</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P8" t="n">
-        <v>124.8313322867148</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q8" t="n">
-        <v>184.5562477052566</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_7</t>
+          <t>model_32_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999980973528924</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990100217792197</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999985414091584</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999947342643341</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999968087239458</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776037558451574e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009241012140767815</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I9" t="n">
-        <v>1.968015716759935e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>8.68760173055596e-06</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>5.328314261645378e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001115204997709802</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001332680591308951</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001826541223</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001389415563110109</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P9" t="n">
-        <v>124.4822515316822</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.2071669502241</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_8</t>
+          <t>model_32_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999977792009478</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990063501223236</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999983954299778</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999936829700986</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999962306339769</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G10" t="n">
-        <v>2.073018433420366e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009275285446221978</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I10" t="n">
-        <v>2.164979329560671e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J10" t="n">
-        <v>1.042206509862719e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>6.293522214093931e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001170621062531288</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001439798052999227</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00000213196709</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001501093236908255</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P10" t="n">
-        <v>124.1730096648067</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q10" t="n">
-        <v>183.8979250833485</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_9</t>
+          <t>model_32_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999974548058689</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990028904054701</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999982218138505</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999926384136603</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999956447624819</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G11" t="n">
-        <v>2.37582700031626e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009307580384409425</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I11" t="n">
-        <v>2.399232320556137e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J11" t="n">
-        <v>1.214541220482391e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>7.271722592000958e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001221226065287183</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001541371791721991</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000002443386366</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001606991179975072</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P11" t="n">
-        <v>123.9003299408589</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.6252453594007</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_10</t>
+          <t>model_32_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999971329228285</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989996705423151</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999998042326584</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999916145790922</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999950655614387</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G12" t="n">
-        <v>2.676290689415961e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009337636393605278</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I12" t="n">
-        <v>2.641406994538563e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>1.383457161749274e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>8.238785649687558e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001266874599305583</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001635937251063121</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000002752394085</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001705582486697842</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P12" t="n">
-        <v>123.6621575865322</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q12" t="n">
-        <v>183.387073005074</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_11</t>
+          <t>model_32_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999968096663842</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989966536962888</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999978415365802</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999906088986924</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999944876884512</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G13" t="n">
-        <v>2.978036390907559e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009365797327018167</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I13" t="n">
-        <v>2.912324562214355e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J13" t="n">
-        <v>1.549377962483737e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>9.203631319040832e-06</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001310467236944148</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001725698812338804</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000003062720271</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001799165383469078</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P13" t="n">
-        <v>123.4484928077238</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.1734082262656</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999965034438182</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.998993914737293</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.99999763950987</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999896682202353</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999939416479248</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G14" t="n">
-        <v>3.263881714618166e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009391364306978768</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I14" t="n">
-        <v>3.184910766490073e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J14" t="n">
-        <v>1.704574506911502e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>1.011532791780254e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001348814771567536</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001806621630175551</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000003356693935</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001883533253194461</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P14" t="n">
-        <v>123.265186721826</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.9901021403679</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_13</t>
+          <t>model_32_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999961927819092</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989912850069336</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999974367643188</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999887167075734</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999993389617216</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G15" t="n">
-        <v>3.553870970178964e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009415911685566597</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I15" t="n">
-        <v>3.458466872621992e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J15" t="n">
-        <v>1.861558517743995e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>1.103702602503097e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001386208654465747</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001885171337088214</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000003654929367</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001965426983750706</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P15" t="n">
-        <v>123.0949462688234</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.8198616873652</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_14</t>
+          <t>model_32_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999959038202412</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989889174338866</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999972295552634</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999987849482431</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999992877426648</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G16" t="n">
-        <v>3.823604003351658e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009438011940715042</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I16" t="n">
-        <v>3.738045398849276e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>2.004636467822345e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>1.189220503853637e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001419501473356604</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001955403795473369</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000003932332568</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002038649383290548</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P16" t="n">
-        <v>122.9486342474925</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.6735496660343</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_15</t>
+          <t>model_32_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999956384605547</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998986805615229</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999970402455759</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999870535107169</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999924076723258</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G17" t="n">
-        <v>4.071305622695587e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009457724840902826</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I17" t="n">
-        <v>3.993473055275897e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J17" t="n">
-        <v>2.135958768822343e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>1.267653037174967e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001448476162669417</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002017747660807859</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000004187077868</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00210364735604192</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P17" t="n">
-        <v>122.8230936362707</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q17" t="n">
-        <v>182.5480090548126</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_16</t>
+          <t>model_32_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999953805458324</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989848118856628</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999968506992539</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999862858496364</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999919519194006</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G18" t="n">
-        <v>4.312057694895102e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000947633543125794</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I18" t="n">
-        <v>4.249219992720278e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J18" t="n">
-        <v>2.262610278780354e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>1.343747827144282e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001475807561381781</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00207654946844401</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000004434676001</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002164952478365664</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P18" t="n">
-        <v>122.7081906887388</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.4331061072806</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_17</t>
+          <t>model_32_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999951417310932</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989830022847107</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999966619764247</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999855874005241</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999915304751752</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G19" t="n">
-        <v>4.534980771159555e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009493227261822654</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I19" t="n">
-        <v>4.503855825803108e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J19" t="n">
-        <v>2.377842947141025e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>1.414114264860668e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001500285350818526</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002129549429142126</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000004663938151</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002220208757115742</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P19" t="n">
-        <v>122.6073794290066</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.3322948475484</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_18</t>
+          <t>model_32_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999949162104818</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998981337305983</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999964795372567</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999849322130346</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999911330536824</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G20" t="n">
-        <v>4.745494362663787e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009508769107404126</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I20" t="n">
-        <v>4.750013377021203e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J20" t="n">
-        <v>2.48593815602106e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>1.48046974686159e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001522947883313557</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002178415562436099</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000004880437938</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002271155222870881</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P20" t="n">
-        <v>122.5166298906192</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q20" t="n">
-        <v>182.241545309161</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_19</t>
+          <t>model_32_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999994703185331</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989798001992889</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999963064115983</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999843148879023</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999990758101874</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G21" t="n">
-        <v>4.944343990168659e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009523117323681522</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I21" t="n">
-        <v>4.983604598839925e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J21" t="n">
-        <v>2.587786695877591e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>1.543073577880792e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001543953492494669</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002223588089140761</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005084942082</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002318250837557381</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P21" t="n">
-        <v>122.4345325258596</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.1594479444014</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_20</t>
+          <t>model_32_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999945095016228</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989784178887146</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999961430869324</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999837588410394</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999990417385737</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G22" t="n">
-        <v>5.125139230098875e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009536020586129053</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I22" t="n">
-        <v>5.203971750628633e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J22" t="n">
-        <v>2.679525324525355e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>1.599961249794109e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001562332520344963</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002263877035110095</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005270878442</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002360254967366246</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P22" t="n">
-        <v>122.3627057329205</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.0876211514623</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_21</t>
+          <t>model_32_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999943334267387</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989771797823049</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999959992302299</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999832501520327</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999901079336421</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G23" t="n">
-        <v>5.289497405568616e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009547577765996999</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I23" t="n">
-        <v>5.398071592376013e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J23" t="n">
-        <v>2.763450682256945e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>1.651628920747273e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001578972177969719</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002299890737745734</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005439910331</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002397801847881726</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P23" t="n">
-        <v>122.2995746500136</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q23" t="n">
-        <v>182.0244900685554</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_22</t>
+          <t>model_32_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999941709852513</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989760573441427</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999958563024387</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999982790820783</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999898226644082</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G24" t="n">
-        <v>5.441129403654226e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009558055233547226</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I24" t="n">
-        <v>5.590918092868674e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J24" t="n">
-        <v>2.839232818181414e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>1.699258900154842e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000159395589015012</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002332622859283992</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005595854159</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0024319274435987</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P24" t="n">
-        <v>122.2430478153575</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q24" t="n">
-        <v>181.9679632338993</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_23</t>
+          <t>model_32_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999940179827285</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989750139889808</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999957257036644</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999823528998079</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999895541118304</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G25" t="n">
-        <v>5.583950542757352e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000956779449600425</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I25" t="n">
-        <v>5.767129565719984e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J25" t="n">
-        <v>2.911482609335777e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>1.744097782953888e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001608036479572437</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002363038413305495</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005742736581</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002463637850723775</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P25" t="n">
-        <v>122.191228098999</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q25" t="n">
-        <v>181.9161435175408</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999993880930667</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989740779993511</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999956072696408</v>
+        <v>0.9999999572301479</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999819631942041</v>
+        <v>0.9999986068119083</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999893136479625</v>
+        <v>0.9999994931346314</v>
       </c>
       <c r="G26" t="n">
-        <v>5.711882626249593e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000957653154834588</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I26" t="n">
-        <v>5.926927648262784e-06</v>
+        <v>9.113280683120503e-09</v>
       </c>
       <c r="J26" t="n">
-        <v>2.975777653613628e-05</v>
+        <v>4.616933349919579e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>1.784246834158031e-05</v>
+        <v>2.354032051958157e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001620292543159263</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002389954523887346</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00000587430656</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002491699835857126</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P26" t="n">
-        <v>122.1459237635278</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.8708391820696</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
   </sheetData>
